--- a/Tickets/Normal Tickets/Ticket 29078 - SKU building issues/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 29078 - SKU building issues/Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 29078 - SKU building issues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 29078 - SKU building issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EF434-137C-40E1-8979-CD3B64A80A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F95A4D-A5BC-4A7E-9C55-7EC3E71693AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Test Case #</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>query database, and no errors</t>
+  </si>
+  <si>
+    <t>Cather Cheese - 2023/03/29</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -301,59 +304,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,119 +787,132 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -912,13 +922,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -932,7 +935,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
@@ -949,58 +952,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="24">
+      <c r="B2" s="27"/>
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="24" t="str">
+      <c r="B3" s="27"/>
+      <c r="C3" s="17" t="str">
         <f>'Test Cases'!B2</f>
         <v>Test new procedures</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="24" t="str">
+      <c r="B4" s="27"/>
+      <c r="C4" s="17" t="str">
         <f>'Test Cases'!D2</f>
         <v>SQL Server Management Studio</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1012,21 +1015,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>1</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1040,53 +1043,57 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
@@ -1098,10 +1105,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1112,12 +1115,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1352,14 +1357,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,9 +1370,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1394,12 +1400,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
